--- a/data/trans_bre/PLURIPATOLOGIA-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,69; 8,4</t>
+          <t>3,46; 8,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 13,29</t>
+          <t>7,14; 13,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,32; 15,23</t>
+          <t>8,41; 15,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,26; 20,19</t>
+          <t>11,64; 20,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>43,41; 138,53</t>
+          <t>39,44; 138,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,71; 160,84</t>
+          <t>61,47; 158,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>76,8; 198,85</t>
+          <t>73,66; 192,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>44,55; 102,19</t>
+          <t>45,72; 100,77</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,53</t>
+          <t>0,38; 2,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,64</t>
+          <t>1,46; 3,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,32</t>
+          <t>2,86; 5,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,15; 25,15</t>
+          <t>4,11; 23,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,54; 221,39</t>
+          <t>15,46; 204,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>73,5; 351,35</t>
+          <t>72,83; 347,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>123,63; 368,92</t>
+          <t>122,21; 369,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>59,55; 393,78</t>
+          <t>58,16; 376,33</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 1,34</t>
+          <t>-2,16; 1,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 4,23</t>
+          <t>-0,2; 4,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 3,21</t>
+          <t>-0,75; 3,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,55</t>
+          <t>2,02; 6,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-70,58; 124,38</t>
+          <t>-68,03; 154,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-33,25; 915,89</t>
+          <t>-37,29; 907,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,62; 289,17</t>
+          <t>-31,39; 334,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,29; 203,85</t>
+          <t>37,53; 195,93</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,42</t>
+          <t>2,23; 4,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,75; 7,22</t>
+          <t>4,85; 7,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,57</t>
+          <t>4,94; 7,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,56; 21,22</t>
+          <t>7,68; 18,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,27; 145,6</t>
+          <t>56,49; 144,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>107,54; 214,6</t>
+          <t>112,94; 221,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>125,2; 241,69</t>
+          <t>121,39; 239,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>84,32; 231,97</t>
+          <t>84,25; 219,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/PLURIPATOLOGIA-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 8,37</t>
+          <t>3,4; 8,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 13,27</t>
+          <t>7,12; 13,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,41; 15,36</t>
+          <t>8,62; 15,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,44; 138,97</t>
+          <t>39,39; 137,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>61,47; 158,32</t>
+          <t>59,76; 156,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>73,66; 192,94</t>
+          <t>78,38; 198,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,34</t>
+          <t>0,35; 2,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,74</t>
+          <t>1,45; 3,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,29</t>
+          <t>2,75; 5,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,46; 204,69</t>
+          <t>15,57; 204,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>72,83; 347,33</t>
+          <t>75,83; 350,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>122,21; 369,78</t>
+          <t>119,0; 386,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 1,51</t>
+          <t>-2,27; 1,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,33</t>
+          <t>-0,24; 4,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,48</t>
+          <t>-0,93; 3,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-68,03; 154,99</t>
+          <t>-74,34; 110,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 907,69</t>
+          <t>-28,48; 906,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,39; 334,71</t>
+          <t>-35,47; 301,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,35</t>
+          <t>2,24; 4,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,85; 7,33</t>
+          <t>4,91; 7,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 7,44</t>
+          <t>5,08; 7,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,49; 144,33</t>
+          <t>56,99; 148,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>112,94; 221,16</t>
+          <t>113,68; 224,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>121,39; 239,09</t>
+          <t>126,87; 243,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/PLURIPATOLOGIA-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/PLURIPATOLOGIA-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 8,31</t>
+          <t>3,69; 8,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 13,23</t>
+          <t>7,16; 13,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,62; 15,55</t>
+          <t>8,32; 15,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,64; 20,18</t>
+          <t>11,26; 20,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,39; 137,67</t>
+          <t>43,41; 138,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,76; 156,64</t>
+          <t>61,71; 160,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>78,38; 198,2</t>
+          <t>76,8; 198,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>45,72; 100,77</t>
+          <t>44,55; 102,19</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,4</t>
+          <t>0,33; 2,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,6</t>
+          <t>1,37; 3,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,44</t>
+          <t>2,85; 5,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 23,15</t>
+          <t>4,15; 25,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,57; 204,34</t>
+          <t>14,54; 221,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>75,83; 350,62</t>
+          <t>73,5; 351,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>119,0; 386,52</t>
+          <t>123,63; 368,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>58,16; 376,33</t>
+          <t>59,55; 393,78</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,26</t>
+          <t>-2,13; 1,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 4,32</t>
+          <t>-0,28; 4,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,23</t>
+          <t>-0,89; 3,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 6,39</t>
+          <t>2,22; 6,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-74,34; 110,48</t>
+          <t>-70,58; 124,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,48; 906,87</t>
+          <t>-33,25; 915,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-35,47; 301,48</t>
+          <t>-35,62; 289,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,53; 195,93</t>
+          <t>39,29; 203,85</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,46</t>
+          <t>2,25; 4,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,91; 7,4</t>
+          <t>4,75; 7,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,08; 7,56</t>
+          <t>5,11; 7,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,68; 18,12</t>
+          <t>7,56; 21,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,99; 148,52</t>
+          <t>56,27; 145,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>113,68; 224,83</t>
+          <t>107,54; 214,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>126,87; 243,59</t>
+          <t>125,2; 241,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>84,25; 219,84</t>
+          <t>84,32; 231,97</t>
         </is>
       </c>
     </row>
